--- a/Some result data/Gene Set Enrichment results/Gene Set Enrichment - WikiPathways/GSEresultsWP_lightyellow_HCM_.xlsx
+++ b/Some result data/Gene Set Enrichment results/Gene Set Enrichment - WikiPathways/GSEresultsWP_lightyellow_HCM_.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
@@ -50,33 +50,27 @@
     <t>WP4754</t>
   </si>
   <si>
+    <t>WP2879</t>
+  </si>
+  <si>
     <t>WP2877</t>
   </si>
   <si>
     <t>WP1449</t>
   </si>
   <si>
-    <t>WP2879</t>
-  </si>
-  <si>
-    <t>WP3932</t>
-  </si>
-  <si>
     <t>IL-18 signaling pathway</t>
   </si>
   <si>
+    <t>Farnesoid X Receptor  Pathway</t>
+  </si>
+  <si>
     <t>Vitamin D Receptor Pathway</t>
   </si>
   <si>
     <t>Regulation of toll-like receptor signaling pathway</t>
   </si>
   <si>
-    <t>Farnesoid X Receptor  Pathway</t>
-  </si>
-  <si>
-    <t>Focal Adhesion-PI3K-Akt-mTOR-signaling pathway</t>
-  </si>
-  <si>
     <t>tags=100%, list=21%, signal=81%</t>
   </si>
   <si>
@@ -86,19 +80,13 @@
     <t>tags=100%, list=3%, signal=100%</t>
   </si>
   <si>
-    <t>tags=100%, list=30%, signal=72%</t>
-  </si>
-  <si>
     <t>7078</t>
   </si>
   <si>
+    <t>2289/117283</t>
+  </si>
+  <si>
     <t>23098</t>
-  </si>
-  <si>
-    <t>2289/117283</t>
-  </si>
-  <si>
-    <t>6513</t>
   </si>
 </sst>
 </file>
@@ -189,7 +177,7 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" t="n">
         <v>2.0</v>
@@ -198,25 +186,25 @@
         <v>-0.828125</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.3852521136228404</v>
+        <v>-1.365903289497467</v>
       </c>
       <c r="F2" t="n">
-        <v>0.06806282722513089</v>
+        <v>0.0759493670886076</v>
       </c>
       <c r="G2" t="n">
-        <v>0.40877598152424943</v>
+        <v>0.45569620253164556</v>
       </c>
       <c r="H2" t="n">
-        <v>0.40877598152424943</v>
+        <v>0.45569620253164556</v>
       </c>
       <c r="I2" t="n">
         <v>14.0</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="3">
@@ -224,34 +212,34 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.796875</v>
+        <v>0.78125</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.3329784489578276</v>
+        <v>1.3571337353949977</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1082024432809773</v>
+        <v>0.1206140350877193</v>
       </c>
       <c r="G3" t="n">
-        <v>0.40877598152424943</v>
+        <v>0.45569620253164556</v>
       </c>
       <c r="H3" t="n">
-        <v>0.40877598152424943</v>
+        <v>0.45569620253164556</v>
       </c>
       <c r="I3" t="n">
         <v>16.0</v>
       </c>
       <c r="J3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4">
@@ -259,34 +247,34 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.7781510728319369</v>
+        <v>-0.796875</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.301657863677973</v>
+        <v>-1.3143597691390718</v>
       </c>
       <c r="F4" t="n">
-        <v>0.12914485165794065</v>
+        <v>0.1301989150090416</v>
       </c>
       <c r="G4" t="n">
-        <v>0.40877598152424943</v>
+        <v>0.45569620253164556</v>
       </c>
       <c r="H4" t="n">
-        <v>0.40877598152424943</v>
+        <v>0.45569620253164556</v>
       </c>
       <c r="I4" t="n">
-        <v>2.0</v>
+        <v>16.0</v>
       </c>
       <c r="J4" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="K4" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -294,69 +282,34 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
       </c>
       <c r="D5" t="n">
-        <v>0.78125</v>
+        <v>-0.7781510728319369</v>
       </c>
       <c r="E5" t="n">
-        <v>1.345496296328291</v>
+        <v>-1.2834766612614346</v>
       </c>
       <c r="F5" t="n">
-        <v>0.13625866050808313</v>
+        <v>0.1518987341772152</v>
       </c>
       <c r="G5" t="n">
-        <v>0.40877598152424943</v>
+        <v>0.45569620253164556</v>
       </c>
       <c r="H5" t="n">
-        <v>0.40877598152424943</v>
+        <v>0.45569620253164556</v>
       </c>
       <c r="I5" t="n">
-        <v>16.0</v>
+        <v>2.0</v>
       </c>
       <c r="J5" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2.0</v>
-      </c>
-      <c r="D6" t="n">
-        <v>-0.734375</v>
-      </c>
-      <c r="E6" t="n">
-        <v>-1.228431119627802</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0.19895287958115182</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0.47748691099476437</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0.47748691099476437</v>
-      </c>
-      <c r="I6" t="n">
-        <v>20.0</v>
-      </c>
-      <c r="J6" t="s">
         <v>24</v>
-      </c>
-      <c r="K6" t="s">
-        <v>28</v>
       </c>
     </row>
   </sheetData>
